--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>86.69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>001305</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>九泰天富改革新动力混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001305</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合A</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>009043</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>九泰久信量化股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>001839</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>九泰久兴灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.81</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001839</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>九泰久兴灵活配置混合</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>92.27</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.70</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -810,15 +930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>91.11</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.64</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009043</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>九泰久信量化股票</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>004510</t>
+          <t>004546</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
+          <t>建信量化优享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>004510</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>62.97</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,34 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009912</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>九泰天富改革新动力混合C</t>
+          <t>诺安中证500指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1146,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>009912</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>九泰天富改革新动力混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>31.11</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1022,15 +1208,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1042,26 +1238,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004142</t>
+          <t>009874</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合A</t>
+          <t>九泰久睿量化股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>11.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1070,26 +1276,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004143</t>
+          <t>005062</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商盛合灵活配置混合C</t>
+          <t>博时中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1098,26 +1314,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005434</t>
+          <t>004142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华睿投灵活配置混合</t>
+          <t>招商盛合灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.01</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1126,26 +1352,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009874</t>
+          <t>005434</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>九泰久睿量化股票</t>
+          <t>鹏华睿投灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.05</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1154,25 +1390,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005062</t>
+          <t>005795</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时中证500指数增强A</t>
+          <t>博时中证500指数增强C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>87.43</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.38</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1182,25 +1428,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005795</t>
+          <t>004790</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时中证500指数增强C</t>
+          <t>富荣中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.43</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1210,25 +1466,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>004791</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>富荣中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.29</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1238,26 +1504,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004791</t>
+          <t>004143</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强C</t>
+          <t>招商盛合灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1539,4 +1540,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1672,4 +1673,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1805,4 +1806,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1814,7 +1815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1825,17 +1826,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1845,14 +1866,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -1861,14 +1956,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -1877,14 +1972,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1893,13 +1988,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>18</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1909,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,17 +1921,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1940,14 +1961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1956,14 +1999,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -1972,14 +2105,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -1988,14 +2121,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -2004,13 +2137,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>18</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2042,7 +2043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,17 +2054,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2073,14 +2094,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.29</v>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2089,14 +2132,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2105,14 +2170,118 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -2121,14 +2290,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -2137,14 +2306,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2153,13 +2322,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>18</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>18</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -767,7 +1372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -899,7 +1504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -986,138 +1591,6 @@
       </c>
       <c r="H2" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159883</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1372</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159898</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1192,22 +1665,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.77</t>
+          <t>98.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1220,36 +1693,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>159898</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0554</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1258,6 +1731,138 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1617,7 +2222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
+++ b/数据整理/stocks/A股/深证主板/002030-达安基因.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>18</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.32</v>
       </c>
     </row>
@@ -616,7 +633,875 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +2089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1372,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1504,7 +2389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1591,138 +2476,6 @@
       </c>
       <c r="H2" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>159883</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1372</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159898</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1797,22 +2550,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.77</t>
+          <t>98.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0616</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1825,36 +2578,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007613</t>
+          <t>159898</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉合医疗健康混合</t>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>98.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0554</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1863,6 +2616,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2220,740 +3105,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512290</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证生物医药ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>41.91</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4333</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>47.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5706</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001305</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.60</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0958</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005434</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华睿投灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>62.97</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0662</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009043</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰久信量化股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0101</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008230</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰天辰量化新动力股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004546</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>31.11</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009912</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>九泰天富改革新动力混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>